--- a/RegistrationFormSeleniumTests/src/main/resources/TestCases/TestCases.xlsx
+++ b/RegistrationFormSeleniumTests/src/main/resources/TestCases/TestCases.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nako\Desktop\Selenium\trunk\RegistrationFormSeleniumTests\src\main\resources\TestCases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19140" windowHeight="8208"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19140" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="GFTRegistrationForm" sheetId="1" r:id="rId1"/>
@@ -16,9 +21,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>TestScenarioID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Action_Keyword</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>openBaseURL</t>
+  </si>
+  <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>Open the Browser</t>
+  </si>
+  <si>
+    <t>Navigate to website</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>GFTRegistrationFormLoading_001</t>
+  </si>
+  <si>
+    <t>Cclose the Browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Check page title</t>
+  </si>
+  <si>
+    <t>checkTitle</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>TS_004</t>
   </si>
 </sst>
 </file>
@@ -58,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,14 +119,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -111,9 +167,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -357,15 +413,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -379,7 +508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -391,7 +520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RegistrationFormSeleniumTests/src/main/resources/TestCases/TestCases.xlsx
+++ b/RegistrationFormSeleniumTests/src/main/resources/TestCases/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>GFTRegistrationFormLoading_001</t>
   </si>
   <si>
-    <t>Cclose the Browser</t>
-  </si>
-  <si>
     <t>closeBrowser</t>
   </si>
   <si>
@@ -72,19 +69,117 @@
   </si>
   <si>
     <t>TS_004</t>
+  </si>
+  <si>
+    <t>Page Object</t>
+  </si>
+  <si>
+    <t>title_RegistrationForm</t>
+  </si>
+  <si>
+    <t>Close the Browser</t>
+  </si>
+  <si>
+    <t>GFTRegistrationForm_RegisterWithJavaQuestionCategory_002</t>
+  </si>
+  <si>
+    <t>Enter First Name</t>
+  </si>
+  <si>
+    <t>Enter Last Name</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Repeat Email</t>
+  </si>
+  <si>
+    <t>Select Java question category</t>
+  </si>
+  <si>
+    <t>Select correct answer for selected question</t>
+  </si>
+  <si>
+    <t>Select checkbox for personal data using agreement</t>
+  </si>
+  <si>
+    <t>Click on Save button</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>input_FirstName</t>
+  </si>
+  <si>
+    <t>input_LastName</t>
+  </si>
+  <si>
+    <t>input_Email</t>
+  </si>
+  <si>
+    <t>input_RepeatEmail</t>
+  </si>
+  <si>
+    <t>select_JavaQuestionCategory</t>
+  </si>
+  <si>
+    <t>select_Answer</t>
+  </si>
+  <si>
+    <t>select_</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Runmode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,8 +202,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,35 +514,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -451,11 +563,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -465,40 +577,181 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
